--- a/Configs/Armor.xlsx
+++ b/Configs/Armor.xlsx
@@ -7,9 +7,7 @@
     <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="装备表" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,8 +26,43 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Martian</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Martian:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+道具：10001-19999
+装备：20001-29999
+武器：30001-39999
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="44">
   <si>
     <t>装备Id</t>
   </si>
@@ -88,7 +121,7 @@
     <t>armorDurable</t>
   </si>
   <si>
-    <t>armorAttribute</t>
+    <t>armorAbility</t>
   </si>
   <si>
     <t>int</t>
@@ -98,6 +131,9 @@
   </si>
   <si>
     <t>float</t>
+  </si>
+  <si>
+    <t>int[]</t>
   </si>
   <si>
     <t>破旧的头盔</t>
@@ -170,7 +206,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -327,6 +363,17 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1101,10 +1148,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1117,11 +1166,10 @@
     <col min="7" max="8" width="20.6666666666667" customWidth="1"/>
     <col min="9" max="9" width="17.9333333333333" customWidth="1"/>
     <col min="10" max="10" width="14.8083333333333" customWidth="1"/>
-    <col min="11" max="11" width="13.2666666666667" customWidth="1"/>
-    <col min="12" max="12" width="17.2" customWidth="1"/>
+    <col min="11" max="11" width="17.2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:12">
+    <row r="1" s="1" customFormat="1" spans="1:11">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1153,9 +1201,8 @@
         <v>9</v>
       </c>
       <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:12">
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:11">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -1187,9 +1234,8 @@
         <v>19</v>
       </c>
       <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:12">
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:11">
       <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
@@ -1218,17 +1264,16 @@
         <v>20</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-    </row>
-    <row r="4" ht="16.5" spans="1:11">
+    </row>
+    <row r="4" ht="16.5" spans="1:10">
       <c r="A4" s="3">
-        <v>10001</v>
+        <v>20001</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3">
@@ -1238,7 +1283,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G4" s="3">
         <v>8</v>
@@ -1250,14 +1295,13 @@
         <v>7</v>
       </c>
       <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-    </row>
-    <row r="5" ht="16.5" spans="1:11">
+    </row>
+    <row r="5" ht="16.5" spans="1:10">
       <c r="A5" s="3">
-        <v>10002</v>
+        <v>20002</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3">
@@ -1267,7 +1311,7 @@
         <v>2</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G5" s="3">
         <v>10</v>
@@ -1279,14 +1323,13 @@
         <v>10</v>
       </c>
       <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-    </row>
-    <row r="6" ht="16.5" spans="1:11">
+    </row>
+    <row r="6" ht="16.5" spans="1:10">
       <c r="A6" s="3">
-        <v>10003</v>
+        <v>20003</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3">
@@ -1296,7 +1339,7 @@
         <v>3</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G6" s="3">
         <v>7</v>
@@ -1308,14 +1351,13 @@
         <v>5</v>
       </c>
       <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-    </row>
-    <row r="7" ht="16.5" spans="1:11">
+    </row>
+    <row r="7" ht="16.5" spans="1:10">
       <c r="A7" s="3">
-        <v>10004</v>
+        <v>20004</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3">
@@ -1325,7 +1367,7 @@
         <v>4</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G7" s="3">
         <v>9</v>
@@ -1336,15 +1378,16 @@
       <c r="I7" s="3">
         <v>8</v>
       </c>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-    </row>
-    <row r="8" ht="16.5" spans="1:11">
+      <c r="J7" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" ht="16.5" spans="1:10">
       <c r="A8" s="3">
-        <v>10005</v>
+        <v>20005</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3">
@@ -1354,7 +1397,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G8" s="3">
         <v>12</v>
@@ -1367,14 +1410,13 @@
         <v>11</v>
       </c>
       <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" ht="16.5" spans="1:11">
+    </row>
+    <row r="9" ht="16.5" spans="1:10">
       <c r="A9" s="3">
-        <v>10006</v>
+        <v>20006</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3">
@@ -1384,7 +1426,7 @@
         <v>2</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G9" s="3">
         <v>15</v>
@@ -1397,14 +1439,13 @@
         <v>15</v>
       </c>
       <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" ht="16.5" spans="1:9">
+    </row>
+    <row r="10" ht="16.5" spans="1:10">
       <c r="A10" s="3">
-        <v>10007</v>
+        <v>20007</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3">
@@ -1414,7 +1455,7 @@
         <v>3</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G10" s="3">
         <v>10</v>
@@ -1426,13 +1467,14 @@
         <f>ROUNDUP(I6*1.5,0)</f>
         <v>8</v>
       </c>
-    </row>
-    <row r="11" ht="16.5" spans="1:9">
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" ht="16.5" spans="1:10">
       <c r="A11" s="3">
-        <v>10008</v>
+        <v>20008</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3">
@@ -1442,7 +1484,7 @@
         <v>4</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G11" s="3">
         <v>13</v>
@@ -1454,13 +1496,16 @@
         <f>ROUNDUP(I7*1.5,0)</f>
         <v>12</v>
       </c>
-    </row>
-    <row r="12" ht="16.5" spans="1:9">
+      <c r="J11" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" ht="16.5" spans="1:10">
       <c r="A12" s="3">
-        <v>10009</v>
+        <v>20009</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3">
@@ -1470,7 +1515,7 @@
         <v>1</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G12" s="3">
         <v>20</v>
@@ -1482,13 +1527,14 @@
         <f>ROUNDUP(I8*1.7,0)</f>
         <v>19</v>
       </c>
-    </row>
-    <row r="13" ht="16.5" spans="1:9">
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" ht="16.5" spans="1:10">
       <c r="A13" s="3">
-        <v>10010</v>
+        <v>20010</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3">
@@ -1498,7 +1544,7 @@
         <v>2</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G13" s="3">
         <v>30</v>
@@ -1510,13 +1556,14 @@
         <f>ROUNDUP(I9*1.7,0)</f>
         <v>26</v>
       </c>
-    </row>
-    <row r="14" ht="16.5" spans="1:9">
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" ht="16.5" spans="1:10">
       <c r="A14" s="3">
-        <v>10011</v>
+        <v>20011</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3">
@@ -1526,7 +1573,7 @@
         <v>3</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G14" s="3">
         <v>18</v>
@@ -1538,13 +1585,14 @@
         <f>ROUNDUP(I10*1.7,0)</f>
         <v>14</v>
       </c>
-    </row>
-    <row r="15" ht="16.5" spans="1:9">
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" ht="16.5" spans="1:10">
       <c r="A15" s="3">
-        <v>10012</v>
+        <v>20012</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3">
@@ -1554,7 +1602,7 @@
         <v>4</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G15" s="3">
         <v>25</v>
@@ -1566,13 +1614,16 @@
         <f>ROUNDUP(I11*1.7,0)</f>
         <v>21</v>
       </c>
-    </row>
-    <row r="16" ht="16.5" spans="1:9">
+      <c r="J15" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" ht="16.5" spans="1:10">
       <c r="A16" s="3">
-        <v>10013</v>
+        <v>20013</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3">
@@ -1582,7 +1633,7 @@
         <v>1</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G16" s="3">
         <v>35</v>
@@ -1594,13 +1645,14 @@
         <f>ROUNDUP(I12*2,0)</f>
         <v>38</v>
       </c>
-    </row>
-    <row r="17" ht="16.5" spans="1:9">
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" ht="16.5" spans="1:10">
       <c r="A17" s="3">
-        <v>10014</v>
+        <v>20014</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3">
@@ -1610,7 +1662,7 @@
         <v>2</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G17" s="3">
         <v>65</v>
@@ -1622,13 +1674,14 @@
         <f>ROUNDUP(I13*2,0)</f>
         <v>52</v>
       </c>
-    </row>
-    <row r="18" ht="16.5" spans="1:9">
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" ht="16.5" spans="1:10">
       <c r="A18" s="3">
-        <v>10015</v>
+        <v>20015</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3">
@@ -1638,7 +1691,7 @@
         <v>3</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G18" s="3">
         <v>30</v>
@@ -1650,13 +1703,14 @@
         <f>ROUNDUP(I14*2,0)</f>
         <v>28</v>
       </c>
-    </row>
-    <row r="19" ht="16.5" spans="1:9">
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" ht="16.5" spans="1:10">
       <c r="A19" s="3">
-        <v>10016</v>
+        <v>20016</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3">
@@ -1666,7 +1720,7 @@
         <v>4</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G19" s="3">
         <v>55</v>
@@ -1678,44 +1732,38 @@
         <f>ROUNDUP(I15*2,0)</f>
         <v>42</v>
       </c>
+      <c r="J19" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" ht="16.5" spans="1:10">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" ht="16.5" spans="1:10">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Configs/Armor.xlsx
+++ b/Configs/Armor.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="25500" windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="装备表" sheetId="1" r:id="rId1"/>
@@ -94,7 +94,7 @@
     <t>特殊词条</t>
   </si>
   <si>
-    <t>armorId</t>
+    <t>id</t>
   </si>
   <si>
     <t>armorName</t>
@@ -1150,10 +1150,10 @@
   <sheetPr/>
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomLeft" activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/Configs/Armor.xlsx
+++ b/Configs/Armor.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25500" windowHeight="17655"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="装备表" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="48">
   <si>
     <t>装备Id</t>
   </si>
@@ -194,6 +194,18 @@
   </si>
   <si>
     <t>传说的护腿</t>
+  </si>
+  <si>
+    <t>口袋款盔甲</t>
+  </si>
+  <si>
+    <t>相比普通盔甲，内衬多了个口袋，可以多装一些东西了</t>
+  </si>
+  <si>
+    <t>药草手套</t>
+  </si>
+  <si>
+    <t>特殊材料制作的手套，戴上它可以感到体力满满</t>
   </si>
 </sst>
 </file>
@@ -376,12 +388,18 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -702,7 +720,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -726,16 +744,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -744,97 +762,103 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1150,10 +1174,10 @@
   <sheetPr/>
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H26" sqref="H26"/>
+      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1162,7 +1186,7 @@
     <col min="2" max="2" width="37.2166666666667" customWidth="1"/>
     <col min="3" max="3" width="36.4416666666667" customWidth="1"/>
     <col min="4" max="5" width="23.2166666666667" customWidth="1"/>
-    <col min="6" max="6" width="40.8583333333333" customWidth="1"/>
+    <col min="6" max="6" width="47.3833333333333" customWidth="1"/>
     <col min="7" max="8" width="20.6666666666667" customWidth="1"/>
     <col min="9" max="9" width="17.9333333333333" customWidth="1"/>
     <col min="10" max="10" width="14.8083333333333" customWidth="1"/>
@@ -1170,595 +1194,631 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:11">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2"/>
+      <c r="K1" s="3"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:11">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="2"/>
+      <c r="K2" s="3"/>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:11">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="2"/>
+      <c r="K3" s="3"/>
     </row>
     <row r="4" ht="16.5" spans="1:10">
-      <c r="A4" s="3">
+      <c r="A4" s="4">
         <v>20001</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4">
         <v>1</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="4">
         <v>1</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="4">
         <v>8</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="4">
         <v>0.6</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="4">
         <v>7</v>
       </c>
-      <c r="J4" s="3"/>
+      <c r="J4" s="4"/>
     </row>
     <row r="5" ht="16.5" spans="1:10">
-      <c r="A5" s="3">
+      <c r="A5" s="4">
         <v>20002</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3">
+      <c r="C5" s="4"/>
+      <c r="D5" s="4">
         <v>1</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="4">
         <v>2</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="4">
         <v>10</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="4">
         <v>0.6</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="4">
         <v>10</v>
       </c>
-      <c r="J5" s="3"/>
+      <c r="J5" s="4"/>
     </row>
     <row r="6" ht="16.5" spans="1:10">
-      <c r="A6" s="3">
+      <c r="A6" s="4">
         <v>20003</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3">
+      <c r="C6" s="4"/>
+      <c r="D6" s="4">
         <v>1</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="4">
         <v>3</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="4">
         <v>7</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="4">
         <v>0.6</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="4">
         <v>5</v>
       </c>
-      <c r="J6" s="3"/>
+      <c r="J6" s="4"/>
     </row>
     <row r="7" ht="16.5" spans="1:10">
-      <c r="A7" s="3">
+      <c r="A7" s="4">
         <v>20004</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3">
+      <c r="C7" s="4"/>
+      <c r="D7" s="4">
         <v>1</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="4">
         <v>4</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="4">
         <v>9</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="4">
         <v>0.6</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="4">
         <v>8</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="4">
         <v>4</v>
       </c>
     </row>
     <row r="8" ht="16.5" spans="1:10">
-      <c r="A8" s="3">
+      <c r="A8" s="4">
         <v>20005</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3">
+      <c r="C8" s="4"/>
+      <c r="D8" s="4">
         <v>2</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="4">
         <v>1</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="4">
         <v>12</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="4">
         <v>0.6</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="4">
         <f>ROUNDUP(I4*1.5,0)</f>
         <v>11</v>
       </c>
-      <c r="J8" s="3"/>
+      <c r="J8" s="4"/>
     </row>
     <row r="9" ht="16.5" spans="1:10">
-      <c r="A9" s="3">
+      <c r="A9" s="4">
         <v>20006</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3">
+      <c r="C9" s="4"/>
+      <c r="D9" s="4">
         <v>2</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="4">
         <v>2</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="4">
         <v>15</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="4">
         <v>0.6</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="4">
         <f>ROUNDUP(I5*1.5,0)</f>
         <v>15</v>
       </c>
-      <c r="J9" s="3"/>
+      <c r="J9" s="4"/>
     </row>
     <row r="10" ht="16.5" spans="1:10">
-      <c r="A10" s="3">
+      <c r="A10" s="4">
         <v>20007</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3">
+      <c r="C10" s="4"/>
+      <c r="D10" s="4">
         <v>2</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="4">
         <v>3</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="4">
         <v>10</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="4">
         <v>0.6</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="4">
         <f>ROUNDUP(I6*1.5,0)</f>
         <v>8</v>
       </c>
-      <c r="J10" s="3"/>
+      <c r="J10" s="4"/>
     </row>
     <row r="11" ht="16.5" spans="1:10">
-      <c r="A11" s="3">
+      <c r="A11" s="4">
         <v>20008</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3">
+      <c r="C11" s="4"/>
+      <c r="D11" s="4">
         <v>2</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="4">
         <v>4</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="4">
         <v>13</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="4">
         <v>0.6</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="4">
         <f>ROUNDUP(I7*1.5,0)</f>
         <v>12</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="12" ht="16.5" spans="1:10">
-      <c r="A12" s="3">
+      <c r="A12" s="4">
         <v>20009</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3">
+      <c r="C12" s="4"/>
+      <c r="D12" s="4">
         <v>3</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="4">
         <v>1</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="4">
         <v>20</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="4">
         <v>0.65</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="4">
         <f>ROUNDUP(I8*1.7,0)</f>
         <v>19</v>
       </c>
-      <c r="J12" s="3"/>
+      <c r="J12" s="4"/>
     </row>
     <row r="13" ht="16.5" spans="1:10">
-      <c r="A13" s="3">
+      <c r="A13" s="4">
         <v>20010</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3">
+      <c r="C13" s="4"/>
+      <c r="D13" s="4">
         <v>3</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="4">
         <v>2</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="4">
         <v>30</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="4">
         <v>0.65</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="4">
         <f>ROUNDUP(I9*1.7,0)</f>
         <v>26</v>
       </c>
-      <c r="J13" s="3"/>
+      <c r="J13" s="4"/>
     </row>
     <row r="14" ht="16.5" spans="1:10">
-      <c r="A14" s="3">
+      <c r="A14" s="4">
         <v>20011</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3">
+      <c r="C14" s="4"/>
+      <c r="D14" s="4">
         <v>3</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="4">
         <v>3</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="4">
         <v>18</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="4">
         <v>0.65</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="4">
         <f>ROUNDUP(I10*1.7,0)</f>
         <v>14</v>
       </c>
-      <c r="J14" s="3"/>
+      <c r="J14" s="4"/>
     </row>
     <row r="15" ht="16.5" spans="1:10">
-      <c r="A15" s="3">
+      <c r="A15" s="4">
         <v>20012</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3">
+      <c r="C15" s="4"/>
+      <c r="D15" s="4">
         <v>3</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="4">
         <v>4</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="4">
         <v>25</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="4">
         <v>0.65</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="4">
         <f>ROUNDUP(I11*1.7,0)</f>
         <v>21</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="4">
         <v>6</v>
       </c>
     </row>
     <row r="16" ht="16.5" spans="1:10">
-      <c r="A16" s="3">
+      <c r="A16" s="4">
         <v>20013</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3">
+      <c r="C16" s="4"/>
+      <c r="D16" s="4">
         <v>4</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="4">
         <v>1</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="4">
         <v>35</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="4">
         <v>0.7</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16" s="4">
         <f>ROUNDUP(I12*2,0)</f>
         <v>38</v>
       </c>
-      <c r="J16" s="3"/>
+      <c r="J16" s="4"/>
     </row>
     <row r="17" ht="16.5" spans="1:10">
-      <c r="A17" s="3">
+      <c r="A17" s="4">
         <v>20014</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3">
+      <c r="C17" s="4"/>
+      <c r="D17" s="4">
         <v>4</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="4">
         <v>2</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="4">
         <v>65</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="4">
         <v>1.7</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I17" s="4">
         <f>ROUNDUP(I13*2,0)</f>
         <v>52</v>
       </c>
-      <c r="J17" s="3"/>
+      <c r="J17" s="4"/>
     </row>
     <row r="18" ht="16.5" spans="1:10">
-      <c r="A18" s="3">
+      <c r="A18" s="4">
         <v>20015</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3">
+      <c r="C18" s="4"/>
+      <c r="D18" s="4">
         <v>4</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="4">
         <v>3</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="4">
         <v>30</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="4">
         <v>2.7</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="4">
         <f>ROUNDUP(I14*2,0)</f>
         <v>28</v>
       </c>
-      <c r="J18" s="3"/>
+      <c r="J18" s="4"/>
     </row>
     <row r="19" ht="16.5" spans="1:10">
-      <c r="A19" s="3">
+      <c r="A19" s="4">
         <v>20016</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3">
+      <c r="C19" s="4"/>
+      <c r="D19" s="4">
         <v>4</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="4">
         <v>4</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="4">
         <v>55</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19" s="4">
         <v>3.7</v>
       </c>
-      <c r="I19" s="3">
+      <c r="I19" s="4">
         <f>ROUNDUP(I15*2,0)</f>
         <v>42</v>
       </c>
-      <c r="J19" s="3">
+      <c r="J19" s="4">
         <v>7</v>
       </c>
     </row>
-    <row r="20" ht="16.5" spans="1:10">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-    </row>
-    <row r="21" ht="16.5" spans="1:10">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
+    <row r="20" s="2" customFormat="1" ht="16.5" spans="1:10">
+      <c r="A20" s="5">
+        <v>20017</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5">
+        <v>2</v>
+      </c>
+      <c r="E20" s="5">
+        <v>2</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G20" s="5">
+        <v>15</v>
+      </c>
+      <c r="H20" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="I20" s="5">
+        <v>20</v>
+      </c>
+      <c r="J20" s="5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" s="2" customFormat="1" ht="16.5" spans="1:10">
+      <c r="A21" s="5">
+        <v>20018</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5">
+        <v>2</v>
+      </c>
+      <c r="E21" s="5">
+        <v>3</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G21" s="5">
+        <v>16</v>
+      </c>
+      <c r="H21" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="I21" s="5">
+        <v>16</v>
+      </c>
+      <c r="J21" s="5">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Configs/Armor.xlsx
+++ b/Configs/Armor.xlsx
@@ -1,51 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Unity项目\BOOOM\BooomProject\Configs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A3B18F4-C03E-4B12-85DC-EDBB0ED33A65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="20330" windowHeight="9860"/>
   </bookViews>
   <sheets>
     <sheet name="装备表" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Martian</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Martian:</t>
@@ -54,7 +34,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -70,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="48">
   <si>
     <t>装备Id</t>
   </si>
@@ -219,8 +198,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -232,39 +217,359 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -272,9 +577,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -282,6 +829,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -289,21 +839,62 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -553,663 +1144,700 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4:C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="20.125" customWidth="1"/>
-    <col min="2" max="2" width="37.25" customWidth="1"/>
+    <col min="1" max="1" width="20.1272727272727" customWidth="1"/>
+    <col min="2" max="2" width="37.2545454545455" customWidth="1"/>
     <col min="3" max="3" width="36.5" customWidth="1"/>
-    <col min="4" max="5" width="23.25" customWidth="1"/>
-    <col min="6" max="6" width="47.375" customWidth="1"/>
-    <col min="7" max="8" width="20.625" customWidth="1"/>
-    <col min="9" max="9" width="17.875" customWidth="1"/>
-    <col min="10" max="10" width="14.75" customWidth="1"/>
-    <col min="11" max="11" width="17.25" customWidth="1"/>
+    <col min="4" max="5" width="23.2545454545455" customWidth="1"/>
+    <col min="6" max="6" width="47.3727272727273" customWidth="1"/>
+    <col min="7" max="8" width="20.6272727272727" customWidth="1"/>
+    <col min="9" max="9" width="17.8727272727273" customWidth="1"/>
+    <col min="10" max="10" width="14.7545454545455" customWidth="1"/>
+    <col min="11" max="11" width="17.2545454545455" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="1"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="2">
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" ht="16.5" spans="1:10">
+      <c r="A4" s="3">
         <v>20001</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2">
+      <c r="C4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="3">
         <v>1</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="3">
         <v>1</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="3">
         <v>8</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="3">
         <v>0.6</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="3">
         <v>7</v>
       </c>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="2">
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" ht="16.5" spans="1:10">
+      <c r="A5" s="3">
         <v>20002</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2">
+      <c r="C5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="3">
         <v>1</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="3">
         <v>2</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="3">
         <v>10</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="3">
         <v>0.6</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="3">
         <v>10</v>
       </c>
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="2">
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" ht="16.5" spans="1:10">
+      <c r="A6" s="3">
         <v>20003</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2">
+      <c r="C6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="3">
         <v>1</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="3">
         <v>3</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="3">
         <v>7</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="3">
         <v>0.6</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="3">
         <v>5</v>
       </c>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="2">
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" ht="16.5" spans="1:10">
+      <c r="A7" s="3">
         <v>20004</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2">
+      <c r="C7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="3">
         <v>1</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="3">
         <v>4</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="3">
         <v>9</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="3">
         <v>0.6</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="3">
         <v>8</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="2">
+    <row r="8" ht="16.5" spans="1:10">
+      <c r="A8" s="3">
         <v>20005</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2">
+      <c r="C8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="3">
         <v>2</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="3">
         <v>1</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="3">
         <v>12</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="3">
         <v>0.6</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="3">
         <f>ROUNDUP(I4*1.5,0)</f>
         <v>11</v>
       </c>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="2">
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" ht="16.5" spans="1:10">
+      <c r="A9" s="3">
         <v>20006</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2">
+      <c r="C9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="3">
         <v>2</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="3">
         <v>2</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="3">
         <v>15</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="3">
         <v>0.6</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="3">
         <f>ROUNDUP(I5*1.5,0)</f>
         <v>15</v>
       </c>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="2">
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" ht="16.5" spans="1:10">
+      <c r="A10" s="3">
         <v>20007</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2">
+      <c r="C10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="3">
         <v>2</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="3">
         <v>3</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="3">
         <v>10</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="3">
         <v>0.6</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="3">
         <f>ROUNDUP(I6*1.5,0)</f>
         <v>8</v>
       </c>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="2">
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" ht="16.5" spans="1:10">
+      <c r="A11" s="3">
         <v>20008</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2">
+      <c r="C11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="3">
         <v>2</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="3">
         <v>4</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="3">
         <v>13</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="3">
         <v>0.6</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="3">
         <f>ROUNDUP(I7*1.5,0)</f>
         <v>12</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="2">
+    <row r="12" ht="16.5" spans="1:10">
+      <c r="A12" s="3">
         <v>20009</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2">
+      <c r="C12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="3">
         <v>3</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="3">
         <v>1</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="3">
         <v>20</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="3">
         <v>0.65</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="3">
         <f>ROUNDUP(I8*1.7,0)</f>
         <v>19</v>
       </c>
-      <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="2">
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" ht="16.5" spans="1:10">
+      <c r="A13" s="3">
         <v>20010</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2">
+      <c r="C13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="3">
         <v>3</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="3">
         <v>2</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="3">
         <v>30</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="3">
         <v>0.65</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="3">
         <f>ROUNDUP(I9*1.7,0)</f>
         <v>26</v>
       </c>
-      <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="2">
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" ht="16.5" spans="1:10">
+      <c r="A14" s="3">
         <v>20011</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2">
+      <c r="C14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="3">
         <v>3</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="3">
         <v>3</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="3">
         <v>18</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="3">
         <v>0.65</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="3">
         <f>ROUNDUP(I10*1.7,0)</f>
         <v>14</v>
       </c>
-      <c r="J14" s="2"/>
-    </row>
-    <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A15" s="2">
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" ht="16.5" spans="1:10">
+      <c r="A15" s="3">
         <v>20012</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2">
+      <c r="C15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="3">
         <v>3</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="3">
         <v>4</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="3">
         <v>25</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="3">
         <v>0.65</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15" s="3">
         <f>ROUNDUP(I11*1.7,0)</f>
         <v>21</v>
       </c>
-      <c r="J15" s="2">
+      <c r="J15" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="2">
+    <row r="16" ht="16.5" spans="1:10">
+      <c r="A16" s="3">
         <v>20013</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2">
+      <c r="C16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="3">
         <v>4</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="3">
         <v>1</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="3">
         <v>35</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="3">
         <v>0.7</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I16" s="3">
         <f>ROUNDUP(I12*2,0)</f>
         <v>38</v>
       </c>
-      <c r="J16" s="2"/>
-    </row>
-    <row r="17" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A17" s="2">
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" ht="16.5" spans="1:10">
+      <c r="A17" s="3">
         <v>20014</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2">
+      <c r="C17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="3">
         <v>4</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="3">
         <v>2</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="3">
         <v>65</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17" s="3">
         <v>1.7</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I17" s="3">
         <f>ROUNDUP(I13*2,0)</f>
         <v>52</v>
       </c>
-      <c r="J17" s="2"/>
-    </row>
-    <row r="18" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A18" s="2">
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" ht="16.5" spans="1:10">
+      <c r="A18" s="3">
         <v>20015</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2">
+      <c r="C18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="3">
         <v>4</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="3">
         <v>3</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="3">
         <v>30</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18" s="3">
         <v>2.7</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I18" s="3">
         <f>ROUNDUP(I14*2,0)</f>
         <v>28</v>
       </c>
-      <c r="J18" s="2"/>
-    </row>
-    <row r="19" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="2">
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" ht="16.5" spans="1:10">
+      <c r="A19" s="3">
         <v>20016</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2">
+      <c r="C19" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="3">
         <v>4</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="3">
         <v>4</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19" s="3">
         <v>55</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H19" s="3">
         <v>3.7</v>
       </c>
-      <c r="I19" s="2">
+      <c r="I19" s="3">
         <f>ROUNDUP(I15*2,0)</f>
         <v>42</v>
       </c>
-      <c r="J19" s="2">
+      <c r="J19" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A20" s="3">
+    <row r="20" s="1" customFormat="1" ht="16.5" spans="1:10">
+      <c r="A20" s="4">
         <v>20017</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3">
+      <c r="C20" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="4">
         <v>2</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="4">
         <v>2</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="4">
         <v>15</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="4">
         <v>0.5</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20" s="4">
         <v>20</v>
       </c>
-      <c r="J20" s="3">
+      <c r="J20" s="4">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A21" s="3">
+    <row r="21" s="1" customFormat="1" ht="16.5" spans="1:10">
+      <c r="A21" s="4">
         <v>20018</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3">
+      <c r="C21" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="4">
         <v>2</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="4">
         <v>3</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="4">
         <v>16</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="4">
         <v>0.6</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="4">
         <v>16</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="4">
         <v>18</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Configs/Armor.xlsx
+++ b/Configs/Armor.xlsx
@@ -4,12 +4,25 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20330" windowHeight="9860"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="装备表" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -198,7 +211,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -220,34 +233,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -264,6 +249,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -273,41 +297,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -358,7 +350,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -384,49 +397,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,121 +535,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -575,21 +588,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -622,6 +620,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -680,148 +693,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -842,52 +855,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1152,23 +1165,23 @@
   <sheetPr/>
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4:C21"/>
+      <selection pane="bottomLeft" activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="20.1272727272727" customWidth="1"/>
-    <col min="2" max="2" width="37.2545454545455" customWidth="1"/>
+    <col min="1" max="1" width="20.125" customWidth="1"/>
+    <col min="2" max="2" width="37.2583333333333" customWidth="1"/>
     <col min="3" max="3" width="36.5" customWidth="1"/>
-    <col min="4" max="5" width="23.2545454545455" customWidth="1"/>
-    <col min="6" max="6" width="47.3727272727273" customWidth="1"/>
-    <col min="7" max="8" width="20.6272727272727" customWidth="1"/>
-    <col min="9" max="9" width="17.8727272727273" customWidth="1"/>
-    <col min="10" max="10" width="14.7545454545455" customWidth="1"/>
-    <col min="11" max="11" width="17.2545454545455" customWidth="1"/>
+    <col min="4" max="5" width="23.2583333333333" customWidth="1"/>
+    <col min="6" max="6" width="47.375" customWidth="1"/>
+    <col min="7" max="8" width="20.625" customWidth="1"/>
+    <col min="9" max="9" width="17.875" customWidth="1"/>
+    <col min="10" max="10" width="14.7583333333333" customWidth="1"/>
+    <col min="11" max="11" width="17.2583333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
